--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Expenditure Shares At Current Prices_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Expenditure Shares At Current Prices_historical.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Household Final Consumption Expenditure</t>
+  </si>
+  <si>
+    <t>Government Final Consumption Expenditure</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Durable equipment</t>
+  </si>
+  <si>
+    <t>Breeding Stocks and Orchard Development</t>
+  </si>
+  <si>
+    <t>Changes in Inventories</t>
+  </si>
+  <si>
+    <t>Exports of Goods and services</t>
+  </si>
+  <si>
+    <t>Imports of goods and services</t>
+  </si>
+  <si>
+    <t>Statistical discrepancy</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product</t>
+  </si>
+  <si>
+    <t>Net Primary Income from the Rest of the World</t>
+  </si>
+  <si>
+    <t>Gross National Income</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +93,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +112,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,3305 +409,3273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:77">
+      <c r="B1" s="1">
         <v>1946</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1947</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1948</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1949</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1950</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1951</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1952</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1953</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1954</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1955</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1956</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1957</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1958</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1959</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1960</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1961</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1962</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1963</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1964</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1965</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1966</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1967</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1968</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1969</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1970</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1971</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1972</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1973</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1974</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1975</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1976</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1977</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1978</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1979</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1980</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1981</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1982</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1983</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1984</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1985</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1986</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1987</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1988</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1989</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1990</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1991</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1992</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1993</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1994</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1995</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>1996</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>1997</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>1998</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>1999</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2000</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2001</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2002</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2003</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2004</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2005</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2006</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2007</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2008</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2009</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2010</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2011</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2012</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2013</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2014</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2015</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2016</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="1">
         <v>2017</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="1">
         <v>2018</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="1">
         <v>2019</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BX1" s="1">
         <v>2020</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BY1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Household Final Consumption Expenditure</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:77">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>4131.56930899289</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4224.87419026121</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4515.52624510747</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>4658.9448032372</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5086.78850453776</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>5989.62193047124</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>6558.52546742306</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>6541.7088584048</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>7042.83649391943</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>7450.38216113179</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>7962.2728211955</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>8445.776567952489</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>9036.14351207768</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>9194.33105922227</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>10080.494631785</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>11030.7364410021</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>12052.9951690648</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>13851.8072183262</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>15431.3794116432</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>16878.925485416</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>18618.812603883</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>20494.9097686196</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>22392.6922371952</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>24232.0481042866</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>27865.5375349955</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>33521.488514965</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>37724.1275015497</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>45685.5705714324</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>62790.2981843933</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>70349.35254147599</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>80137.028382516</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>95108.83581193299</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>109659.69854221</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>135113.269420533</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>164340.603511416</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>190772.679866775</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>217820.81426608</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>247803.169211762</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>386420.886673916</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>454761.971623293</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>480758.285119546</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>518062.609420964</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>600260.889891673</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>692331.129600337</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>812653.766894555</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>980324.809385419</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>1087480.33171592</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>1191418.34309216</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>1339369.45717483</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>1505936.20073412</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>1699969.12589169</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>1881758.00322208</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>2139824.2203473</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>2360274.7337343</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>2651808.949664</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>2933885.968582</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>3180445.039601</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>3467809.360192</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>3918375.960649</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>4376059.88278</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>4799974.453917</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>5201191.025416</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>5891605.699633</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>6140884.002758</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>6597705.032916</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>7317487.274665</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>8025008.314817</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>8677723.172161</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>9413037.486819999</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>10105733.622787</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>10979085.762881</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>11950863.582939</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>13250084.431221</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>14288332.662963</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>13476075.391922</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>14610149.175485</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Government Final Consumption Expenditure</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:77">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>286.832911908475</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>445.021384455412</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>525.168024800375</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>541.828315090456</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>588.695363935286</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>640.742361293858</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>702.901379156853</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>743.755655462612</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>769.268305472293</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>829.628717976855</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>903.164429496869</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>965.2824212429711</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>1040.5476970786</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>1117.12918299634</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>1242.35353138559</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>1425.68541171372</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>1609.65876667758</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>1961.78850818407</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>2163.12946817092</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>2403.47771919262</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>2606.57149551365</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>2900.95967281311</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>3208.1786354027</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>3522.45238854447</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>3994.8355735916</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>4854.89581765433</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>5977.68882223709</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>7113.4661611745</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>10042.5214563226</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>12375.6414495577</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>14598.1173564868</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>16029.5980571072</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>17984.6077296712</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>20359.2615722242</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>23708.2440176466</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>26529.8378250955</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>30998.9359534559</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>32637.4114337002</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>40274.4051758402</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>48145.8310351376</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>53622.1880413615</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>63043.026910997</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>79385.3194491452</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>96267.25086994161</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>118051.24459405</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>135676.814061018</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>142574.859294468</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>161962.283673356</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>199101.481825094</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>236998.504924604</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>283086.786207987</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>349793.766005027</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>392093</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>396404.899999</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>409049</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>432290.721406</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>446804.023958</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>468535.669189</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>486654.053833</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>524578.055607</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>593919.496281</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>664511.904042</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>709579.528035</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>824493.035476</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>913663.758166</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>985415.087172</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>1193675.017672</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>1303507.114358</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>1394795.937484</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>1521536.493477</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>1703598.603707</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>1874770.250058</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>2199637.346353</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>2433439.250318</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>2739671.248126</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>3021100.219322</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Gross fixed capital formation</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:77">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>786</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1326</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1540</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1217</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1150</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1273</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1207</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1444</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1309</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1350</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1603</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>1926</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>1877</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>2181</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>2155</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>2574</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>2750</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>3484</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>4181</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>4552</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>4683</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>5614</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>6014</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>6540</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>7144</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>8654</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>9446</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>11645</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>18586</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>26598</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>33499</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>36619</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>42436</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>51174</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>66350</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>78147</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>87325</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>110168</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>121003</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>94168</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>97710</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>112663</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>142226</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>192665</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>248954</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>250147</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>282783</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>350543</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>400139</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>423197</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>508745</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>592575</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>691829.390242838</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>672576.148229704</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>716186.3384679999</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>736938.2143699999</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>798060.776782</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>878846.5613159999</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>987296.7703410001</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>1075851.758366</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>1226166.884126</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>1358595.762714</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>1536293.593047</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>1561912.01242</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>1917688.743234</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>1924101.257312</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>2204382.537859</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>2504476.267709</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>2755231.402731</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>3100015.356274</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>3782584.487048</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>4245610.147898</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>4983346.471415</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>5300100.183172</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>3824091.246522</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>4327283.232211</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:77">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>573</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>952</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1147</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>807</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>800</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>900</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>819</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>983</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>794</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>793</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>976</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>1183</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>1103</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>1263</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>1209</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>1490</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>1470</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>1915</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>2269</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>2557</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>2523</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>2855</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>2773</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>3047</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>2902</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>3186</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>3917</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>4833</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>8231</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>12735</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>19133</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>21916</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>24655</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>28086</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>37275</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>45978</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>50355</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>66699</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>75364</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>51242</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>49469</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>59333</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>72226</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>98421</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>129624</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>119858</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>132356</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>148860</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>165202</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>183740</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>230508</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>270446</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>338705.966598078</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>306348.975141733</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>350830.480388</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>354460.901464</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>381017.651059</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>420487.542704</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>480412.745791</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>510452.460919</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>593121.380231</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>694538.699255</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>827381.614615</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>888982.869571</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>1088491.816165</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>1062692.651013</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>1297704.709371</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>1492103.634338</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>1681421.737679</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>1891221.596751</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>2214527.28802</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>2421829.516435</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>2939785.849495</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>3290529.09461</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>2331973.079895</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>2682152.780755</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Durable equipment</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:77">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>70</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>189</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>212</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>212</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>145</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>154</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>174</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>241</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>285</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>311</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>382</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>476</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>498</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>617</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>632</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>743</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>896</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>1110</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>1429</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>1455</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>1567</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>2116</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>2544</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>2701</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>3473</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>4474</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>4456</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>5509</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>8538</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>12125</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>12490</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>12615</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>15391</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>20239</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>24085</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>26809</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>31367</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>37661</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>37897</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>33261</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>39091</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>42112</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>56951</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>79030</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>101968</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>109521</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>126430</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>176889</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>207562</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>209772</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>245170</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>284894</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>255853.668360367</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>260337.604349875</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>255303.920393</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>264045.567667</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>287914.396148</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>318358.58109</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>345041.9438</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>380864.917224</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>416486.228957</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>430000.675393</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>464821.924534</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>425176.76744</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>567566.954073</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>581077.498858</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>615144.652383</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>713708.803832</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>780330.664261</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>894029.744085</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>1204858.109605</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>1393962.824097</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>1527020.103857</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>1451964.55455</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>943928.0143170001</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>1072946.774528</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Breeding Stocks and Orchard Development</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:77">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>143</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>185</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>181</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>198</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>205</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>219</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>214</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>220</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>230</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>246</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>245</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>267</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>276</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>301</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>314</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>341</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>384</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>459</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>483</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>540</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>593</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>643</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>697</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>792</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>769</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>994</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>1073</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>1303</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>1817</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>1738</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>1876</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>2088</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>2390</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>2849</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>4990</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>5360</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>5603</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>5808</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>7742</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>9665</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>9150</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>11218</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>13049</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>15214</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>17362</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>20768</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>23997</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>24794</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>27375</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>29685</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>33067</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>37235</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>82433.8827313841</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>88898.9304687804</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>88771.814464</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>95654.97926199999</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>105008.70382</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>114717.573187</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>131825.649793</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>154759.733613</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>186539.408157</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>202481.939951</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>213695.130917</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>214150.158935</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>225503.290319</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>240891.353344</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>245086.689609</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>248611.853283</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>233515.309858</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>248904.025416</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>281928.369233</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>326781.657199</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>397760.164699</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>418118.77176</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>421946.176072</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>427892.17056</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Changes in Inventories</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:77">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>218</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>287</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>210</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>115</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>147</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>118</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>115</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>172</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>270</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>286</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>207</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>261</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>329</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>377</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>355</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>471</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>592</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>745</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>686</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>749</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>843</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>674</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>724</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>860</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>1288</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1361</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>1659</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>3215</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>6621</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>6708</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>8300</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>7929</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>9043</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>11381</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>4548</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>-813</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>1089</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>-940</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>-14284</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>-12121</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>-4933</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>6813</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>6967</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>7235</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>11211</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>2180</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>5618</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>3052</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>7228</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>4699</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>12860</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>8669</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>-1285.77782026745</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>-57534.1722159</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>-136845.78202</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>24650.493728</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>91133.745601</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>40200.557147</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>115195.365414</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>20573.011675</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>-178148.843794</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>-198481.639057</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>-10934.733317</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>-100523.573392</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>1856.549183</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>178559.06557</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>-42228.645394</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>-18218.399854</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>6863.551006</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>-125424.624524</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>-58265.75757</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>-15471.546119</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>-26943.784996</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>-148526.29995</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>-695464.3206419999</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>-216438.322977</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Exports of Goods and services</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:77">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>490.885474392109</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1264.48241282458</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1352.85877296719</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>933.432143247608</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>984.106227849191</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1178.47309981984</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1093.94015493447</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1268.43288238755</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>1230.33660443047</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1252.53774250435</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>1150.23554550291</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>1095.71736560781</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>1166.25702895966</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1231.35699366922</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>1442.969864259</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>1668.629866249</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>2558.38115268368</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>3234.80090455453</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>3430.13461923565</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>4109.09084269257</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>4785.62945596524</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>4998.84842645925</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>4714.3995280591</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>4543.15707708818</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>7906.78004941635</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>9089.80217307641</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>9853.496443275561</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>15925.459387691</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>21797.3785428736</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>20887.4780699195</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>22540.8174703969</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>28292.7259343006</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>31655.5282104816</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>40054.0011768364</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>52262.6427824321</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>59324.7389118518</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>57381.3502617613</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>70843.4416636016</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>116017.130178733</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>127091.125514441</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>147634.970620656</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>165406.319113573</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>208938.51861907</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>238907.792678478</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>273296.182296285</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>342386.782882469</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>367634.395107384</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>430653.257312365</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>534024.984486788</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>648147.380030825</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>822631.684696695</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>1116790.06542072</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>1321780.84381122</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>1475762.88854291</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>1602676.867576</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>1656261.566494</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>1740471.018196</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>1995869.938964</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>2226820.934722</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>2439697.813315</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>2701749.62893</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>2736354.224655</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>2685291.9968</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>2535545.559863</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>3090053.431327</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>2952647.187364</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>3038020.103159</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>3154534.053166</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>3612662.387647</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>3793934.339868</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>4036260.615459</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>4892869.683927</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BV9">
         <v>5518572.505292</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
         <v>5539739.492234</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BX9">
         <v>4524306.240468</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9">
         <v>4996723.533584</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Imports of goods and services</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:77">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>633.502027381198</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1600.87924780677</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1491.31784985802</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1507.42746076443</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>954.7463960519081</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1294.15998518427</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1140.81574003245</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>1174.0459868023</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>1262.00589241825</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>1438.26005945193</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>1349.12848713061</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>1622.48198408614</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>1465.63335108556</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>1552.0959261151</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>1595.6648201728</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>2140.35416245204</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>3138.69155793726</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>3260.03874825237</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>3939.62507290927</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>4280.11426470003</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>4561.42324109902</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>5494.1393435323</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>5789.11964138741</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>5839.81458290288</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>8321.165859493931</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>9731.121100204889</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>10426.3413276499</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>13619.4018575041</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>25375.9216296696</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>28690.926294791</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>31359.504349887</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>34518.2627334741</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>40952.9133356955</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>53062.1758818614</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>68363.2892083964</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>75581.2460280729</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>81564.5431624935</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>101661.586866112</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>131864.051258426</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>127186.407968295</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>138502.948767562</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>180762.1216844</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>217411.438702748</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>280781.940656226</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>357080.88270639</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>408985.750827094</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>461291.660112553</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>585599.574400767</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>679602.588401485</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>844296.117207182</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>1072412.57531761</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>1444550.96839728</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>1591480.03862952</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>1603287.17503625</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>1545916.79203</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>1760468.773488</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>1907247.299657</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>2135734.462352</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>2411645.74343</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>2521687.448429</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>2594297.892179</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>2564791.782658</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>2763169.982635</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>2573096.01749</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>3123385.676595</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>3214884.546573</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>3359646.297998</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>3572682.559171</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>3977060.399374</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>4452862.380357</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>5311929.313441</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>6393529.44349</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BV10">
         <v>7662209.490849</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
         <v>7896717.084855</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BX10">
         <v>5918045.172462</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10">
         <v>7329292.110777</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Statistical discrepancy</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:77">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>-569</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>-209</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-382</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>633</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>38</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-48</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-263</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>-275</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>-309</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>-96</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>36</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>335</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>105</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>560</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>408</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>271</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>660</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>-124</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>-467</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>-887</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>-1041</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>-1373</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>-234</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>491</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>1027</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>1660</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>1375</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>718</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>1705</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>2175</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>2060</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>-488</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>1111</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>2237</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>5868</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>7454</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>10131</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>16699</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>24127</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>13348</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>-924</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>20752</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>7423</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>8039</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>3301</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>-7264</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>-20370</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>-26172</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>-49168</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>-1773</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>-13691</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>-5583</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>0.389403632842</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>-0.06938356882893</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>0</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>0</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>0</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>0</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>0</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>0</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>0</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>0</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>0</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>0</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>0</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>0</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>0</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>0</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>0</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>0</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>0</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BU11">
         <v>0</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="BV11">
         <v>0</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BW11">
         <v>0</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="BX11">
         <v>0</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="BY11">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Gross Domestic Product</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:77">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>5015.082412</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6243.28616530591</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6806.90402039272</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>7134.04044283638</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>7547.04549090114</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>8402.70143826829</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>8793.06744139193</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>9325.514135312569</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>9655.190295704029</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>10291.4504554734</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>11246.2457055189</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>12274.2528176897</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>12970.3940422208</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>14147.3702954457</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>15144.5116007607</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>16505.7963955779</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>18469.98969214</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>21526.9694872582</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>23279.2283984147</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>25477.4477599658</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>28037.1697624126</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>30127.0083470905</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>33667.7221505026</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>37330.0225451926</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>44631.6637013369</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>53866.0409291457</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>60526.2358898886</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>77105.7401349455</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>105944.355796013</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>122310.056946812</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>144200.050981317</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>164957.962333306</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>189758.311665086</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>230314.541812181</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>276781.890846977</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>319930.997283594</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>360439.336286754</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>419607.080321221</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>596647.936678554</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>650540.333312895</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>692852.433971754</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>777283.056653887</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>910280.135936155</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>1054528.52047076</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>1227881.7024351</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>1422957.5141008</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>1541524.16593927</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>1682420.86872178</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>1932662.4208689</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>2176583.79781476</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>2481303.64619448</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>2773375.1006078</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>3046222.10556078</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>3347587.19010019</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD12">
         <v>3697556.205388</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12">
         <v>4024398.940184</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BF12">
         <v>4350559.772134</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BG12">
         <v>4717808.940485</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>5323904.1772</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>5917282.301168</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>6550417.112923</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>7198244.887764</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>8050200.620569</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BM12">
         <v>8390421.456271</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BN12">
         <v>9399450.758074</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BO12">
         <v>10144661.326782</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BP12">
         <v>11060588.830567</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BQ12">
         <v>12050591.984261</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BR12">
         <v>13206828.251692</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BS12">
         <v>13944157.447765</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BT12">
         <v>15132381.470173</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BU12">
         <v>16556651.083226</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BV12">
         <v>18265190.258162</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BW12">
         <v>19517863.171682</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BX12">
         <v>17951573.570013</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BY12">
         <v>19410568.055125</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Net Primary Income from the Rest of the World</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:77">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>-12.4092818305891</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>-155.116022882364</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-207.855470662367</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-235.776354781193</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-117.888177390596</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-235.776354781193</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>-145.809061509422</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-425.017902697677</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>-437.427184528266</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>-514.985195969448</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>-505.678234596506</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>-493.268952765917</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>-366.073814002378</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>-499.473593681211</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>-608.0548096988661</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>-331.948288968258</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>-164.422984255306</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>-195.446188831778</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>-260.594918442371</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>-353.664532171789</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>-425.017902697677</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>-884.161330429473</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>-1051.68663514243</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>-893.468291802415</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>-2190.23824309898</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>-1622.51359934952</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>-1703.17393124835</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>-577.031605122393</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>964.821662328303</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>-1092.01680109184</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>-3747.60311283791</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>-3496.31515576848</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>-3214.00399412258</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>-362.971493544731</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>-5187.07980518624</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>-6114.67362202278</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>-18443.295120713</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>-24852.6891862123</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>-64097.0429754504</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13">
         <v>-63457.964961175</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13">
         <v>-63585.1600999386</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13">
         <v>-53735.2926469085</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13">
         <v>-53090.0099917178</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13">
         <v>-61999.8743460808</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13">
         <v>-18005.8679361848</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13">
         <v>20323.3013180473</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13">
         <v>72218.91793357091</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13">
         <v>108736.332040537</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13">
         <v>134795.823884774</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13">
         <v>163194.465354077</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13">
         <v>277400.188361446</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13">
         <v>315127.507446895</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB13">
         <v>425241.269770627</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC13">
         <v>447797.993463935</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD13">
         <v>348600.782172</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13">
         <v>385363.659262</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BF13">
         <v>414766.048438</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BG13">
         <v>443996.612058</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BH13">
         <v>496609.735748</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BI13">
         <v>577512.833373</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13">
         <v>602492.486176</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BK13">
         <v>646486.615096</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BL13">
         <v>754128.317532</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BM13">
         <v>968971.909007</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BN13">
         <v>1054598.676845</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BO13">
         <v>1094895.907586</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BP13">
         <v>1220547.2568</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BQ13">
         <v>1417073.71414</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BR13">
         <v>1521989.792027</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BS13">
         <v>1593552.893106</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BT13">
         <v>1680552.846961</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="BU13">
         <v>1826528.024878</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="BV13">
         <v>1947158.658007</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="BW13">
         <v>1954197.181119</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="BX13">
         <v>1360426.940011</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="BY13">
         <v>693869.146265</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Gross National Income</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:77">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>4952.32946498135</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6020.61568314971</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6529.60855954593</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>6819.67027313633</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>7344.17731240596</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>8071.65750453501</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>8548.300500247609</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>8793.15357096341</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>9102.050746748409</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>9648.27044440232</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>10599.3377125796</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>11623.3083592482</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>12433.0027321194</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>13454.0902932524</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>14324.9397963112</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>15935.0220927976</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>18029.278189902</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>20995.2686675675</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>22648.5555095492</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>24704.9153019379</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>27138.6443475115</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>28717.0270423834</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>32004.1001336891</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>35737.6837829792</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>41580.5649105614</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>51169.2453401941</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>57588.9470318493</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>74900.07119538409</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>104608.313309399</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>118511.542163056</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>137196.244403496</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>157656.600591284</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>182090.077832601</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>224440.753507156</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>264875.429633926</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>305880.544442528</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>332974.009386667</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14">
         <v>384067.391701337</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14">
         <v>517003.412875179</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14">
         <v>570161.693316676</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14">
         <v>611033.202169662</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14">
         <v>702735.335723612</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14">
         <v>832366.325905327</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14">
         <v>963348.861383583</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14">
         <v>1175522.42338259</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14">
         <v>1403061.20985353</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14">
         <v>1569683.17499726</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14">
         <v>1742365.83402851</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14">
         <v>2010485.42355401</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14">
         <v>2274899.16948819</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14">
         <v>2683788.34021444</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14">
         <v>3003845.42770011</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BB14">
         <v>3378003.29712582</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BC14">
         <v>3691995.24733412</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BD14">
         <v>4046156.98756</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14">
         <v>4409762.599446</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BF14">
         <v>4765325.820572</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BG14">
         <v>5161805.552544</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BH14">
         <v>5820513.912948</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BI14">
         <v>6494795.134541</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BJ14">
         <v>7152909.599099</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BK14">
         <v>7844731.50286</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BL14">
         <v>8804328.938100999</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BM14">
         <v>9359393.365277</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BN14">
         <v>10454049.434919</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BO14">
         <v>11239557.234367</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BP14">
         <v>12281136.087367</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BQ14">
         <v>13467665.698401</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BR14">
         <v>14728818.043719</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BS14">
         <v>15537710.340871</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BT14">
         <v>16812934.317134</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BU14">
         <v>18383179.108104</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="BV14">
         <v>20212348.916169</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="BW14">
         <v>21472060.352801</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="BX14">
         <v>19312000.510024</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="BY14">
         <v>20104437.201391</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>